--- a/backend/hct_mis_api/apps/payment/tests/test_file/import_file_no_delivery_date.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/import_file_no_delivery_date.xlsx
@@ -46,13 +46,13 @@
     <t>delivery_date</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.001</t>
+    <t>RCPT-0060-24-0.000.001</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.002</t>
+    <t>RCPT-0060-24-0.000.002</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.003</t>
+    <t>RCPT-0060-24-0.000.003</t>
   </si>
 </sst>
 </file>
